--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17075</v>
+        <v>75754</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calebe Rocha</t>
+          <t>Gustavo Nunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,274 +494,274 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>4601.41</v>
+        <v>8178.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43332</v>
+        <v>62076</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Eduarda Castro</t>
+          <t>Lucas Gabriel Freitas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>7148.69</v>
+        <v>10127.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20608</v>
+        <v>38124</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Guilherme Pinto</t>
+          <t>Breno Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>11024.09</v>
+        <v>9406.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64834</v>
+        <v>7697</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Theo Moraes</t>
+          <t>Letícia Lopes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>4111.77</v>
+        <v>2611.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91602</v>
+        <v>30004</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Maria Fernanda Souza</t>
+          <t>Sophia Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>5863.95</v>
+        <v>4214.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71525</v>
+        <v>73954</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>André Fogaça</t>
+          <t>Bruno da Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>8204.389999999999</v>
+        <v>7574.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13001</v>
+        <v>80796</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Isabel da Cunha</t>
+          <t>Rebeca Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>12094.6</v>
+        <v>11867.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67036</v>
+        <v>46244</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Clarice Nogueira</t>
+          <t>Thales Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>4446.8</v>
+        <v>10060.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62056</v>
+        <v>20393</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raul Costela</t>
+          <t>Sra. Lívia Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>2548.85</v>
+        <v>3850.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1921</v>
+        <v>9896</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Laura Nogueira</t>
+          <t>João Felipe Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>5619.69</v>
+        <v>12205.55</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75754</v>
+        <v>23322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Nunes</t>
+          <t>Dr. Levi Araújo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>8178.76</v>
+        <v>9187.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62076</v>
+        <v>67440</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Freitas</t>
+          <t>Carolina Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,138 +523,138 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>10127.93</v>
+        <v>11402.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38124</v>
+        <v>2787</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Breno Nascimento</t>
+          <t>Matheus Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>9406.6</v>
+        <v>5241.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7697</v>
+        <v>78016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Letícia Lopes</t>
+          <t>Nicolas da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>2611.37</v>
+        <v>6026.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30004</v>
+        <v>49646</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophia Gomes</t>
+          <t>Juan Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>4214.95</v>
+        <v>4078.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73954</v>
+        <v>20907</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruno da Cunha</t>
+          <t>Thiago Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>7574.18</v>
+        <v>12305.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80796</v>
+        <v>29572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rebeca Fogaça</t>
+          <t>Lorenzo Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>11867.08</v>
+        <v>8565.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46244</v>
+        <v>9323</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thales Martins</t>
+          <t>Breno Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>10060.59</v>
+        <v>9356.690000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20393</v>
+        <v>3491</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Lívia Farias</t>
+          <t>Dr. Lorenzo das Neves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>3850.01</v>
+        <v>9242.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9896</v>
+        <v>29230</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Felipe Vieira</t>
+          <t>Maria Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>12205.55</v>
+        <v>3916.48</v>
       </c>
     </row>
   </sheetData>
